--- a/database/Soffer_Bound/expdata/2000.xlsx
+++ b/database/Soffer_Bound/expdata/2000.xlsx
@@ -429,7 +429,7 @@
         <v>15.89154825849169</v>
       </c>
       <c r="D2">
-        <v>0.5709883088055547</v>
+        <v>1.141976617611109</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -449,7 +449,7 @@
         <v>2.665815030634339</v>
       </c>
       <c r="D3">
-        <v>0.1712943514956391</v>
+        <v>0.3425887029912781</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>1.367767011265042</v>
       </c>
       <c r="D4">
-        <v>0.09608116171572151</v>
+        <v>0.192162323431443</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0.8248363741437659</v>
       </c>
       <c r="D5">
-        <v>0.05736333698507288</v>
+        <v>0.1147266739701458</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0.5245459898557765</v>
       </c>
       <c r="D6">
-        <v>0.03882715207820403</v>
+        <v>0.07765430415640806</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0.3434548134826801</v>
       </c>
       <c r="D7">
-        <v>0.03925728848937406</v>
+        <v>0.07851457697874813</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0.2271632908600104</v>
       </c>
       <c r="D8">
-        <v>0.04225010350129776</v>
+        <v>0.08450020700259551</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0.1494009378818091</v>
       </c>
       <c r="D9">
-        <v>0.04074641651246914</v>
+        <v>0.08149283302493829</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0.09656804941320005</v>
       </c>
       <c r="D10">
-        <v>0.03543488512150629</v>
+        <v>0.07086977024301258</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0.06122439195437615</v>
       </c>
       <c r="D11">
-        <v>0.028815142080911</v>
+        <v>0.057630284161822</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0.03834273152900271</v>
       </c>
       <c r="D12">
-        <v>0.02211905755408823</v>
+        <v>0.04423811510817646</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0.02386974854389719</v>
       </c>
       <c r="D13">
-        <v>0.01616138246059265</v>
+        <v>0.03232276492118529</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0.01484804210204104</v>
       </c>
       <c r="D14">
-        <v>0.01143624077193368</v>
+        <v>0.02287248154386736</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0.009275414550886641</v>
       </c>
       <c r="D15">
-        <v>0.007931722304764388</v>
+        <v>0.01586344460952878</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0.005781058505446962</v>
       </c>
       <c r="D16">
-        <v>0.005466363227169233</v>
+        <v>0.01093272645433847</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0.003493420017109349</v>
       </c>
       <c r="D17">
-        <v>0.003694033258120001</v>
+        <v>0.007388066516240003</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0.002009093295457141</v>
       </c>
       <c r="D18">
-        <v>0.002367181375769464</v>
+        <v>0.004734362751538929</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>0.0009694498583902148</v>
       </c>
       <c r="D19">
-        <v>0.001337487682884558</v>
+        <v>0.002674975365769116</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0.0003026011492713809</v>
       </c>
       <c r="D20">
-        <v>0.0005280724037806957</v>
+        <v>0.001056144807561391</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>1.052891629212556E-05</v>
       </c>
       <c r="D21">
-        <v>3.032139111191526E-05</v>
+        <v>6.064278222383053E-05</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>18.80002347246613</v>
       </c>
       <c r="D22">
-        <v>0.7009755474655895</v>
+        <v>1.401951094931179</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>2.748827944458445</v>
       </c>
       <c r="D23">
-        <v>0.150297176881326</v>
+        <v>0.3005943537626519</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>1.320985770636427</v>
       </c>
       <c r="D24">
-        <v>0.07392419708595659</v>
+        <v>0.1478483941719132</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0.7637399827170174</v>
       </c>
       <c r="D25">
-        <v>0.04284169718702631</v>
+        <v>0.08568339437405262</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>0.474010395818192</v>
       </c>
       <c r="D26">
-        <v>0.03560908301629798</v>
+        <v>0.07121816603259597</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0.3056321972209487</v>
       </c>
       <c r="D27">
-        <v>0.03645992034620073</v>
+        <v>0.07291984069240146</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0.2003069935898822</v>
       </c>
       <c r="D28">
-        <v>0.03509350116528404</v>
+        <v>0.07018700233056809</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>0.1313166811640974</v>
       </c>
       <c r="D29">
-        <v>0.0305228228224161</v>
+        <v>0.0610456456448322</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0.08515134905021796</v>
       </c>
       <c r="D30">
-        <v>0.02455251041035975</v>
+        <v>0.04910502082071949</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0.05431965703282742</v>
       </c>
       <c r="D31">
-        <v>0.01868456067526695</v>
+        <v>0.03736912135053389</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0.03399965674176953</v>
       </c>
       <c r="D32">
-        <v>0.01353397481922156</v>
+        <v>0.02706794963844311</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0.02079923653898188</v>
       </c>
       <c r="D33">
-        <v>0.009437654761698014</v>
+        <v>0.01887530952339603</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0.01236671441646959</v>
       </c>
       <c r="D34">
-        <v>0.006432871138397423</v>
+        <v>0.01286574227679485</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>0.007116403240475536</v>
       </c>
       <c r="D35">
-        <v>0.004325112666323066</v>
+        <v>0.008650225332646132</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0.003927929900129158</v>
       </c>
       <c r="D36">
-        <v>0.002874915501900049</v>
+        <v>0.005749831003800099</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0.002042727762034218</v>
       </c>
       <c r="D37">
-        <v>0.001843236270056672</v>
+        <v>0.003686472540113344</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0.0009934376285845664</v>
       </c>
       <c r="D38">
-        <v>0.001092738158952971</v>
+        <v>0.002185476317905943</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0.0003986795621039798</v>
       </c>
       <c r="D39">
-        <v>0.0005473944015836117</v>
+        <v>0.001094788803167223</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0.0001000392473708036</v>
       </c>
       <c r="D40">
-        <v>0.0001776917940830977</v>
+        <v>0.0003553835881661955</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>6.01462376600647E-06</v>
       </c>
       <c r="D41">
-        <v>1.337064347536116E-05</v>
+        <v>2.674128695072233E-05</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>20.2844974885819</v>
       </c>
       <c r="D42">
-        <v>0.7302495755287749</v>
+        <v>1.46049915105755</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>2.778174206744358</v>
       </c>
       <c r="D43">
-        <v>0.1455408591606789</v>
+        <v>0.2910817183213578</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>1.298024169923273</v>
       </c>
       <c r="D44">
-        <v>0.06976063646899752</v>
+        <v>0.139521272937995</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0.7349735795199218</v>
       </c>
       <c r="D45">
-        <v>0.04098817097730975</v>
+        <v>0.0819763419546195</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.4482961721119645</v>
       </c>
       <c r="D46">
-        <v>0.03528456770164344</v>
+        <v>0.07056913540328688</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0.2843572721184703</v>
       </c>
       <c r="D47">
-        <v>0.03554880186238756</v>
+        <v>0.07109760372477512</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0.1833782088559938</v>
       </c>
       <c r="D48">
-        <v>0.03331774717353037</v>
+        <v>0.06663549434706074</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0.1183171789053678</v>
       </c>
       <c r="D49">
-        <v>0.02834701695555149</v>
+        <v>0.05669403391110298</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>0.07555078862848323</v>
       </c>
       <c r="D50">
-        <v>0.02241290964878217</v>
+        <v>0.04482581929756434</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0.04750318216493914</v>
       </c>
       <c r="D51">
-        <v>0.01680210032723888</v>
+        <v>0.03360420065447776</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0.02933701417540627</v>
       </c>
       <c r="D52">
-        <v>0.01201449368102163</v>
+        <v>0.02402898736204325</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0.01772861213059104</v>
       </c>
       <c r="D53">
-        <v>0.008292527613389935</v>
+        <v>0.01658505522677987</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0.01042954080883042</v>
       </c>
       <c r="D54">
-        <v>0.005604331805049912</v>
+        <v>0.01120866361009982</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>0.005946780512671485</v>
       </c>
       <c r="D55">
-        <v>0.00373953116104198</v>
+        <v>0.00747906232208396</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0.00325438013225276</v>
       </c>
       <c r="D56">
-        <v>0.002461438046691703</v>
+        <v>0.004922876093383406</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0.00167664088225175</v>
       </c>
       <c r="D57">
-        <v>0.001556275033957132</v>
+        <v>0.003112550067914264</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0.0008048578660392554</v>
       </c>
       <c r="D58">
-        <v>0.0009044305835477259</v>
+        <v>0.001808861167095452</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0.0003151621941650369</v>
       </c>
       <c r="D59">
-        <v>0.0004395123886642618</v>
+        <v>0.0008790247773285235</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>7.574606284943542E-05</v>
       </c>
       <c r="D60">
-        <v>0.0001359983358837536</v>
+        <v>0.0002719966717675072</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>4.167663076108803E-06</v>
       </c>
       <c r="D61">
-        <v>9.172686628576871E-06</v>
+        <v>1.834537325715374E-05</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>21.18175314816646</v>
       </c>
       <c r="D62">
-        <v>0.7456736527584328</v>
+        <v>1.491347305516866</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>2.791271242733993</v>
       </c>
       <c r="D63">
-        <v>0.1429153086666595</v>
+        <v>0.285830617333319</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>1.283564785314415</v>
       </c>
       <c r="D64">
-        <v>0.06760222162972623</v>
+        <v>0.1352044432594525</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0.718353947324881</v>
       </c>
       <c r="D65">
-        <v>0.04014475209441886</v>
+        <v>0.08028950418883772</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0.4339140130075133</v>
       </c>
       <c r="D66">
-        <v>0.03510455211980505</v>
+        <v>0.0702091042396101</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0.2727262359022667</v>
       </c>
       <c r="D67">
-        <v>0.03499363401565896</v>
+        <v>0.06998726803131793</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0.1743007956532507</v>
       </c>
       <c r="D68">
-        <v>0.03232277018831041</v>
+        <v>0.06464554037662082</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0.1114669283837688</v>
       </c>
       <c r="D69">
-        <v>0.02717427593954828</v>
+        <v>0.05434855187909656</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0.07057096262808438</v>
       </c>
       <c r="D70">
-        <v>0.02128401006525702</v>
+        <v>0.04256802013051404</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0.04401734901902777</v>
       </c>
       <c r="D71">
-        <v>0.01582480823119634</v>
+        <v>0.03164961646239267</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>0.0269832210306233</v>
       </c>
       <c r="D72">
-        <v>0.01123632594351098</v>
+        <v>0.02247265188702196</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0.01619695193746766</v>
       </c>
       <c r="D73">
-        <v>0.007711982896100452</v>
+        <v>0.0154239657922009</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0.009473455705191251</v>
       </c>
       <c r="D74">
-        <v>0.005187575945520467</v>
+        <v>0.01037515189104093</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0.005374828411030907</v>
       </c>
       <c r="D75">
-        <v>0.003446514404767144</v>
+        <v>0.006893028809534288</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0.002927739049729649</v>
       </c>
       <c r="D76">
-        <v>0.002255744450308331</v>
+        <v>0.004511488900616662</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0.00150053972299453</v>
       </c>
       <c r="D77">
-        <v>0.001414872328546514</v>
+        <v>0.002829744657093029</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0.0007150003379736902</v>
       </c>
       <c r="D78">
-        <v>0.0008129770700816939</v>
+        <v>0.001625954140163388</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>0.0002761054918144811</v>
       </c>
       <c r="D79">
-        <v>0.0003883544600568758</v>
+        <v>0.0007767089201137517</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>6.476226417630242E-05</v>
       </c>
       <c r="D80">
-        <v>0.0001169717861824983</v>
+        <v>0.0002339435723649966</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>3.383885343330882E-06</v>
       </c>
       <c r="D81">
-        <v>7.40257205561959E-06</v>
+        <v>1.480514411123918E-05</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>21.77985809501247</v>
       </c>
       <c r="D82">
-        <v>0.755786616028011</v>
+        <v>1.511573232056022</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>2.796768450670906</v>
       </c>
       <c r="D83">
-        <v>0.1411379803820164</v>
+        <v>0.2822759607640328</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>1.272492340733546</v>
       </c>
       <c r="D84">
-        <v>0.06619799768406806</v>
+        <v>0.1323959953681361</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0.7066131552668935</v>
       </c>
       <c r="D85">
-        <v>0.03963808840396459</v>
+        <v>0.07927617680792917</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0.4240420343058123</v>
       </c>
       <c r="D86">
-        <v>0.03497642746612536</v>
+        <v>0.06995285493225072</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0.2648906502385487</v>
       </c>
       <c r="D87">
-        <v>0.03459679335954899</v>
+        <v>0.06919358671909798</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0.1682776235678397</v>
       </c>
       <c r="D88">
-        <v>0.03164420045300671</v>
+        <v>0.06328840090601341</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0.1069819168163651</v>
       </c>
       <c r="D89">
-        <v>0.02639194217347793</v>
+        <v>0.05278388434695587</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>0.06734962162752262</v>
       </c>
       <c r="D90">
-        <v>0.02054026221872906</v>
+        <v>0.04108052443745813</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>0.04178658346140647</v>
       </c>
       <c r="D91">
-        <v>0.01518709404797879</v>
+        <v>0.03037418809595757</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>0.02549138833329429</v>
       </c>
       <c r="D92">
-        <v>0.01073260644949535</v>
+        <v>0.02146521289899071</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0.01523435908887772</v>
       </c>
       <c r="D93">
-        <v>0.007338431563070185</v>
+        <v>0.01467686312614037</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0.008876657533770597</v>
       </c>
       <c r="D94">
-        <v>0.004920645467597669</v>
+        <v>0.009841290935195339</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0.005019550289915054</v>
       </c>
       <c r="D95">
-        <v>0.00325942621274895</v>
+        <v>0.006518852425497899</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>0.002725470908353653</v>
       </c>
       <c r="D96">
-        <v>0.002124897865617214</v>
+        <v>0.004249795731234428</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0.001391700946586758</v>
       </c>
       <c r="D97">
-        <v>0.001325453825532493</v>
+        <v>0.002650907651064985</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0.0006596009163929837</v>
       </c>
       <c r="D98">
-        <v>0.0007556625939202273</v>
+        <v>0.001511325187840455</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0.0002522359664817945</v>
       </c>
       <c r="D99">
-        <v>0.0003567582501617637</v>
+        <v>0.0007135165003235274</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>5.817400985485281E-05</v>
       </c>
       <c r="D100">
-        <v>0.0001054912283824721</v>
+        <v>0.0002109824567649442</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>2.93022763079055E-06</v>
       </c>
       <c r="D101">
-        <v>6.382939924567609E-06</v>
+        <v>1.276587984913522E-05</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>22.20294757861192</v>
       </c>
       <c r="D102">
-        <v>0.7631486984188098</v>
+        <v>1.52629739683762</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>2.797935968025206</v>
       </c>
       <c r="D103">
-        <v>0.1398367832153685</v>
+        <v>0.2796735664307369</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>1.263171842614946</v>
       </c>
       <c r="D104">
-        <v>0.06519817407417901</v>
+        <v>0.130396348148358</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>0.6974114309777381</v>
       </c>
       <c r="D105">
-        <v>0.03929751893018123</v>
+        <v>0.07859503786036245</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>0.4164981228192129</v>
       </c>
       <c r="D106">
-        <v>0.03487798676530214</v>
+        <v>0.06975597353060428</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0.2589978626274906</v>
       </c>
       <c r="D107">
-        <v>0.03429517234477465</v>
+        <v>0.0685903446895493</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2549,7 +2549,7 @@
         <v>0.1638063614600401</v>
       </c>
       <c r="D108">
-        <v>0.03114429340644686</v>
+        <v>0.06228858681289372</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0.103691837239876</v>
       </c>
       <c r="D109">
-        <v>0.02582419284119267</v>
+        <v>0.05164838568238535</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>0.06501283364991002</v>
       </c>
       <c r="D110">
-        <v>0.02000517911625976</v>
+        <v>0.04001035823251951</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0.04018564945775611</v>
       </c>
       <c r="D111">
-        <v>0.01473138650932997</v>
+        <v>0.02946277301865994</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>0.02443199132720257</v>
       </c>
       <c r="D112">
-        <v>0.01037467403470664</v>
+        <v>0.02074934806941328</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0.01455768608512571</v>
       </c>
       <c r="D113">
-        <v>0.007074103721072229</v>
+        <v>0.01414820744214446</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0.008460915470889355</v>
       </c>
       <c r="D114">
-        <v>0.004732373983858543</v>
+        <v>0.009464747967717086</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0.004773913535865546</v>
       </c>
       <c r="D115">
-        <v>0.003127766159181532</v>
+        <v>0.006255532318363064</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>0.002586368371070096</v>
       </c>
       <c r="D116">
-        <v>0.002033071182627618</v>
+        <v>0.004066142365255237</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0.001317084682939045</v>
       </c>
       <c r="D117">
-        <v>0.001262974652485897</v>
+        <v>0.002525949304971793</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0.0006216913022084379</v>
       </c>
       <c r="D118">
-        <v>0.0007158773460396995</v>
+        <v>0.001431754692079399</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0.0002359895078593294</v>
       </c>
       <c r="D119">
-        <v>0.0003350552649289645</v>
+        <v>0.000670110529857929</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>5.374685688702345E-05</v>
       </c>
       <c r="D120">
-        <v>9.773569571692699E-05</v>
+        <v>0.000195471391433854</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>2.632427293226513E-06</v>
       </c>
       <c r="D121">
-        <v>5.717884111382669E-06</v>
+        <v>1.143576822276534E-05</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>22.5781806659294</v>
       </c>
       <c r="D122">
-        <v>0.7688721164209047</v>
+        <v>1.537744232841809</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>2.80018538317105</v>
       </c>
       <c r="D123">
-        <v>0.1388078252082775</v>
+        <v>0.2776156504165551</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>1.25605933023113</v>
       </c>
       <c r="D124">
-        <v>0.06442513492680015</v>
+        <v>0.1288502698536003</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0.6901919768127318</v>
       </c>
       <c r="D125">
-        <v>0.03904509102253985</v>
+        <v>0.0780901820450797</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>0.4105310282011672</v>
       </c>
       <c r="D126">
-        <v>0.03479657973019605</v>
+        <v>0.0695931594603921</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0.2543175319811088</v>
       </c>
       <c r="D127">
-        <v>0.034050234040653</v>
+        <v>0.068100468081306</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>0.1602451599134257</v>
       </c>
       <c r="D128">
-        <v>0.03074768567351807</v>
+        <v>0.06149537134703615</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>0.1010648299649902</v>
       </c>
       <c r="D129">
-        <v>0.02537879334069969</v>
+        <v>0.05075758668139937</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>0.06314241952698599</v>
       </c>
       <c r="D130">
-        <v>0.01958813684140505</v>
+        <v>0.0391762736828101</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0.0389015110802008</v>
       </c>
       <c r="D131">
-        <v>0.01437800680990181</v>
+        <v>0.02875601361980362</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0.02358097188262848</v>
       </c>
       <c r="D132">
-        <v>0.0100982756662989</v>
+        <v>0.02019655133259781</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0.01401413199832272</v>
       </c>
       <c r="D133">
-        <v>0.006870625323073123</v>
+        <v>0.01374125064614625</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>0.008127700781876242</v>
       </c>
       <c r="D134">
-        <v>0.004587786767343537</v>
+        <v>0.009175573534687073</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0.004578072372649368</v>
       </c>
       <c r="D135">
-        <v>0.003026826458387705</v>
+        <v>0.00605365291677541</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>0.002476478663729277</v>
       </c>
       <c r="D136">
-        <v>0.00196281929751431</v>
+        <v>0.00392563859502862</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0.001258894025414388</v>
       </c>
       <c r="D137">
-        <v>0.001215335114150243</v>
+        <v>0.002430670228300485</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>0.0005925711223003728</v>
       </c>
       <c r="D138">
-        <v>0.0006856934400099165</v>
+        <v>0.001371386880019833</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>0.0002237121611719067</v>
       </c>
       <c r="D139">
-        <v>0.0003187211438468919</v>
+        <v>0.0006374422876937837</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>5.045842731442419E-05</v>
       </c>
       <c r="D140">
-        <v>9.19727486200474E-05</v>
+        <v>0.0001839454972400948</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>2.417592107439706E-06</v>
       </c>
       <c r="D141">
-        <v>5.237722253019417E-06</v>
+        <v>1.047544450603883E-05</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>22.916291279643</v>
       </c>
       <c r="D142">
-        <v>0.7735157826629333</v>
+        <v>1.547031565325867</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>2.803041105867745</v>
       </c>
       <c r="D143">
-        <v>0.1379558841319861</v>
+        <v>0.2759117682639721</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>1.250424675657073</v>
       </c>
       <c r="D144">
-        <v>0.063796966523993</v>
+        <v>0.127593933047986</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0.6843182106881587</v>
       </c>
       <c r="D145">
-        <v>0.03884668389389778</v>
+        <v>0.07769336778779556</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -3309,7 +3309,7 @@
         <v>0.4056421595451954</v>
       </c>
       <c r="D146">
-        <v>0.03472651076243727</v>
+        <v>0.06945302152487454</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0.2504706045962041</v>
       </c>
       <c r="D147">
-        <v>0.03384329289474939</v>
+        <v>0.06768658578949878</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0.157312091040914</v>
       </c>
       <c r="D148">
-        <v>0.03041867757924062</v>
+        <v>0.06083735515848123</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>0.09889719091782019</v>
       </c>
       <c r="D149">
-        <v>0.02501255814355251</v>
+        <v>0.05002511628710501</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0.06159615191231622</v>
       </c>
       <c r="D150">
-        <v>0.01924698901630269</v>
+        <v>0.03849397803260539</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>0.03783799527577393</v>
       </c>
       <c r="D151">
-        <v>0.01409010397288595</v>
+        <v>0.0281802079457719</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0.02287504155567475</v>
       </c>
       <c r="D152">
-        <v>0.009873839397644293</v>
+        <v>0.01974767879528859</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>0.0135628888878625</v>
       </c>
       <c r="D153">
-        <v>0.006705809250395512</v>
+        <v>0.01341161850079102</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0.007851223639398866</v>
       </c>
       <c r="D154">
-        <v>0.004470892766492595</v>
+        <v>0.00894178553298519</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0.004415983591427513</v>
       </c>
       <c r="D155">
-        <v>0.002945329901381973</v>
+        <v>0.005890659802763947</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0.002386007834790743</v>
       </c>
       <c r="D156">
-        <v>0.00190619625490074</v>
+        <v>0.00381239250980148</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0.001211382075231629</v>
       </c>
       <c r="D157">
-        <v>0.001177040743134392</v>
+        <v>0.002354081486268783</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>0.0005690457190429699</v>
       </c>
       <c r="D158">
-        <v>0.0006615274703005184</v>
+        <v>0.001323054940601037</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0.0002139137145709191</v>
       </c>
       <c r="D159">
-        <v>0.0003057270738184294</v>
+        <v>0.0006114541476368589</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>4.786897406155918E-05</v>
       </c>
       <c r="D160">
-        <v>8.743461302994423E-05</v>
+        <v>0.0001748692260598885</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>2.251627191131494E-06</v>
       </c>
       <c r="D161">
-        <v>4.867833043107238E-06</v>
+        <v>9.735666086214475E-06</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>23.21025046857887</v>
       </c>
       <c r="D162">
-        <v>0.7773948106613812</v>
+        <v>1.554789621322762</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>2.80541812030846</v>
       </c>
       <c r="D163">
-        <v>0.1372325243651491</v>
+        <v>0.2744650487302983</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>1.245593992695244</v>
       </c>
       <c r="D164">
-        <v>0.06327201266083445</v>
+        <v>0.1265440253216689</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>0.6793194020496061</v>
       </c>
       <c r="D165">
-        <v>0.03868537500810412</v>
+        <v>0.07737075001620823</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0.4014986318468571</v>
       </c>
       <c r="D166">
-        <v>0.03466489820358582</v>
+        <v>0.06932979640717164</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0.2472211184808832</v>
       </c>
       <c r="D167">
-        <v>0.03366460493372003</v>
+        <v>0.06732920986744007</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0.1548420637528466</v>
       </c>
       <c r="D168">
-        <v>0.03013887479416301</v>
+        <v>0.06027774958832601</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         <v>0.09707682239267919</v>
       </c>
       <c r="D169">
-        <v>0.02470338756457535</v>
+        <v>0.0494067751291507</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>0.06030084014033964</v>
       </c>
       <c r="D170">
-        <v>0.01896025649586569</v>
+        <v>0.03792051299173139</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -3809,7 +3809,7 @@
         <v>0.03694906756816769</v>
       </c>
       <c r="D171">
-        <v>0.01384895527782352</v>
+        <v>0.02769791055564704</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>0.02228617676560466</v>
       </c>
       <c r="D172">
-        <v>0.009686383053114129</v>
+        <v>0.01937276610622826</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>0.01318717854151179</v>
       </c>
       <c r="D173">
-        <v>0.006568438576628193</v>
+        <v>0.01313687715325639</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0.00762142981120226</v>
       </c>
       <c r="D174">
-        <v>0.00437362128182743</v>
+        <v>0.008747242563654859</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>0.00428149887050384</v>
       </c>
       <c r="D175">
-        <v>0.002877592601573838</v>
+        <v>0.005755185203147677</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0.002311091074780537</v>
       </c>
       <c r="D176">
-        <v>0.001859203435020935</v>
+        <v>0.003718406870041869</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0.001172134000859217</v>
       </c>
       <c r="D177">
-        <v>0.001145332695586798</v>
+        <v>0.002290665391173596</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0.0005496746679226194</v>
       </c>
       <c r="D178">
-        <v>0.0006415868209882899</v>
+        <v>0.00128317364197658</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>0.0002058874103834999</v>
       </c>
       <c r="D179">
-        <v>0.0002950633505617578</v>
+        <v>0.0005901267011235156</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>4.576544238538614E-05</v>
       </c>
       <c r="D180">
-        <v>8.374234843464587E-05</v>
+        <v>0.0001674846968692917</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -4009,7 +4009,7 @@
         <v>2.118222560846329E-06</v>
       </c>
       <c r="D181">
-        <v>4.572259576687049E-06</v>
+        <v>9.144519153374098E-06</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>23.46117815992884</v>
       </c>
       <c r="D182">
-        <v>0.7807088831883655</v>
+        <v>1.561417766376731</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -4049,7 +4049,7 @@
         <v>2.806924698976049</v>
       </c>
       <c r="D183">
-        <v>0.1366051630625354</v>
+        <v>0.2732103261250707</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>1.241221715096325</v>
       </c>
       <c r="D184">
-        <v>0.06282293143268233</v>
+        <v>0.1256458628653647</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>0.6749251366885787</v>
       </c>
       <c r="D185">
-        <v>0.03855055315251756</v>
+        <v>0.07710110630503511</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0.3978977224616371</v>
       </c>
       <c r="D186">
-        <v>0.0346098133683499</v>
+        <v>0.06921962673669979</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0.2444191607510952</v>
       </c>
       <c r="D187">
-        <v>0.03350745179718</v>
+        <v>0.06701490359436001</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0.1527261441297639</v>
       </c>
       <c r="D188">
-        <v>0.02989588303067236</v>
+        <v>0.05979176606134472</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -4169,7 +4169,7 @@
         <v>0.09552674492274152</v>
       </c>
       <c r="D189">
-        <v>0.02443655698111125</v>
+        <v>0.0488731139622225</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0.05920399486612107</v>
       </c>
       <c r="D190">
-        <v>0.01871371048893703</v>
+        <v>0.03742742097787407</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>0.03620013706179762</v>
       </c>
       <c r="D191">
-        <v>0.0136422073994938</v>
+        <v>0.02728441479898761</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>0.02179225984456387</v>
       </c>
       <c r="D192">
-        <v>0.009526055549345058</v>
+        <v>0.01905211109869012</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <v>0.01287319415605625</v>
       </c>
       <c r="D193">
-        <v>0.00645115994805199</v>
+        <v>0.01290231989610398</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>0.007429851341134886</v>
       </c>
       <c r="D194">
-        <v>0.004290690138772557</v>
+        <v>0.008581380277545113</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>0.004169482069001361</v>
       </c>
       <c r="D195">
-        <v>0.002819899485917284</v>
+        <v>0.005639798971834568</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>0.002248642404928034</v>
       </c>
       <c r="D196">
-        <v>0.001819230245703493</v>
+        <v>0.003638460491406986</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0.001139345467792014</v>
       </c>
       <c r="D197">
-        <v>0.001118413738965999</v>
+        <v>0.002236827477931998</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0.0005334508406684634</v>
       </c>
       <c r="D198">
-        <v>0.0006247084017786651</v>
+        <v>0.00124941680355733</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0.0001991650174540358</v>
       </c>
       <c r="D199">
-        <v>0.00028607885916321</v>
+        <v>0.0005721577183264199</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>4.401115358779231E-05</v>
       </c>
       <c r="D200">
-        <v>8.065437196813031E-05</v>
+        <v>0.0001613087439362606</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>2.008566005915987E-06</v>
       </c>
       <c r="D201">
-        <v>4.329391513382471E-06</v>
+        <v>8.658783026764943E-06</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>23.67472419975578</v>
       </c>
       <c r="D202">
-        <v>0.7835904203473154</v>
+        <v>1.567180840694631</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>2.807569455663216</v>
       </c>
       <c r="D203">
-        <v>0.1360522139558579</v>
+        <v>0.2721044279117158</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>1.237153628615724</v>
       </c>
       <c r="D204">
-        <v>0.06243186078322237</v>
+        <v>0.1248637215664447</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>0.6709807891479603</v>
       </c>
       <c r="D205">
-        <v>0.03843548016399402</v>
+        <v>0.07687096032798804</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -4509,7 +4509,7 @@
         <v>0.394710650452883</v>
       </c>
       <c r="D206">
-        <v>0.03455995066405877</v>
+        <v>0.06911990132811754</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0.2419626200422008</v>
       </c>
       <c r="D207">
-        <v>0.03336728295347044</v>
+        <v>0.06673456590694088</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>0.1508857315134682</v>
       </c>
       <c r="D208">
-        <v>0.02968147403803867</v>
+        <v>0.05936294807607733</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -4569,7 +4569,7 @@
         <v>0.09418835467597125</v>
       </c>
       <c r="D209">
-        <v>0.02420237192994103</v>
+        <v>0.04840474385988206</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0.05826348690641617</v>
       </c>
       <c r="D210">
-        <v>0.01849802242925079</v>
+        <v>0.03699604485850158</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         <v>0.03556203029493064</v>
       </c>
       <c r="D211">
-        <v>0.01346179229372383</v>
+        <v>0.02692358458744766</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -4629,7 +4629,7 @@
         <v>0.02137381164737999</v>
       </c>
       <c r="D212">
-        <v>0.009386440787211901</v>
+        <v>0.0187728815744238</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0.01260839266674065</v>
       </c>
       <c r="D213">
-        <v>0.006349192648599259</v>
+        <v>0.01269838529719852</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>0.00726873379649448</v>
       </c>
       <c r="D214">
-        <v>0.004218672025407425</v>
+        <v>0.00843734405081485</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -4689,7 +4689,7 @@
         <v>0.004075328086790684</v>
       </c>
       <c r="D215">
-        <v>0.002769842050393863</v>
+        <v>0.005539684100787727</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0.002196041029413627</v>
       </c>
       <c r="D216">
-        <v>0.001784586425470232</v>
+        <v>0.003569172850940464</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0.001111602824381559</v>
       </c>
       <c r="D217">
-        <v>0.001095123358155622</v>
+        <v>0.002190246716311245</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -4749,7 +4749,7 @@
         <v>0.0005196502364916437</v>
       </c>
       <c r="D218">
-        <v>0.0006101430591469274</v>
+        <v>0.001220286118293855</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -4769,7 +4769,7 @@
         <v>0.0001934313937142957</v>
       </c>
       <c r="D219">
-        <v>0.0002783568704614386</v>
+        <v>0.0005567137409228771</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>4.251797692511907E-05</v>
       </c>
       <c r="D220">
-        <v>7.801734859136786E-05</v>
+        <v>0.0001560346971827357</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>1.916489488096535E-06</v>
       </c>
       <c r="D221">
-        <v>4.125049230486099E-06</v>
+        <v>8.250098460972198E-06</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -4829,7 +4829,7 @@
         <v>23.85874705239534</v>
       </c>
       <c r="D222">
-        <v>0.7861306917604319</v>
+        <v>1.572261383520864</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>2.807577403394889</v>
       </c>
       <c r="D223">
-        <v>0.1355588224213026</v>
+        <v>0.2711176448426052</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -4869,7 +4869,7 @@
         <v>1.233346149745858</v>
       </c>
       <c r="D224">
-        <v>0.06208665956758727</v>
+        <v>0.1241733191351745</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>0.6674016589313997</v>
       </c>
       <c r="D225">
-        <v>0.03833566228789066</v>
+        <v>0.07667132457578131</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>0.3918548828656812</v>
       </c>
       <c r="D226">
-        <v>0.03451437047524008</v>
+        <v>0.06902874095048016</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0.2397803428304672</v>
       </c>
       <c r="D227">
-        <v>0.03324090026537925</v>
+        <v>0.0664818005307585</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>0.1492626773145543</v>
       </c>
       <c r="D228">
-        <v>0.0294899812214981</v>
+        <v>0.0589799624429962</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>0.09301608010356466</v>
       </c>
       <c r="D229">
-        <v>0.02399420855535725</v>
+        <v>0.04798841711071451</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0.05744507489032002</v>
       </c>
       <c r="D230">
-        <v>0.01830684580832316</v>
+        <v>0.03661369161664633</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>0.03501012179952538</v>
       </c>
       <c r="D231">
-        <v>0.0133022411857673</v>
+        <v>0.0266044823715346</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -5029,7 +5029,7 @@
         <v>0.02101387142260037</v>
       </c>
       <c r="D232">
-        <v>0.009263201307653702</v>
+        <v>0.0185264026153074</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>0.01238161883771063</v>
       </c>
       <c r="D233">
-        <v>0.006259310263816536</v>
+        <v>0.01251862052763307</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -5069,7 +5069,7 @@
         <v>0.007131134499968481</v>
       </c>
       <c r="D234">
-        <v>0.004155257946913875</v>
+        <v>0.008310515893827751</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>0.003994960721832927</v>
       </c>
       <c r="D235">
-        <v>0.002725799203673518</v>
+        <v>0.005451598407347036</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -5109,7 +5109,7 @@
         <v>0.002151045847473571</v>
       </c>
       <c r="D236">
-        <v>0.001754135978990135</v>
+        <v>0.00350827195798027</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0.001087765908267799</v>
       </c>
       <c r="D237">
-        <v>0.00107468376400002</v>
+        <v>0.002149367528000041</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>0.0005077300491975794</v>
       </c>
       <c r="D238">
-        <v>0.000597390056131015</v>
+        <v>0.00119478011226203</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -5169,7 +5169,7 @@
         <v>0.0001884650444898488</v>
       </c>
       <c r="D239">
-        <v>0.0002716205108210936</v>
+        <v>0.0005432410216421873</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>4.122675163392284E-05</v>
       </c>
       <c r="D240">
-        <v>7.573018949065484E-05</v>
+        <v>0.0001514603789813097</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>1.83753390527537E-06</v>
       </c>
       <c r="D241">
-        <v>3.949699859931024E-06</v>
+        <v>7.899399719862048E-06</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>24.02084209377945</v>
       </c>
       <c r="D242">
-        <v>0.7883959436146312</v>
+        <v>1.576791887229262</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>2.807215361805572</v>
       </c>
       <c r="D243">
-        <v>0.1351140526798944</v>
+        <v>0.2702281053597888</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -5269,7 +5269,7 @@
         <v>1.229797956844955</v>
       </c>
       <c r="D244">
-        <v>0.06177850321752339</v>
+        <v>0.1235570064350468</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         <v>0.6641377046129642</v>
       </c>
       <c r="D245">
-        <v>0.03824791312440669</v>
+        <v>0.07649582624881338</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -5309,7 +5309,7 @@
         <v>0.3892747116448453</v>
       </c>
       <c r="D246">
-        <v>0.03447237257108171</v>
+        <v>0.06894474514216342</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>0.2378215549703013</v>
       </c>
       <c r="D247">
-        <v>0.03312591516515429</v>
+        <v>0.06625183033030858</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>0.147814032314426</v>
       </c>
       <c r="D248">
-        <v>0.02931722339304239</v>
+        <v>0.05863444678608477</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>0.09197534725674883</v>
       </c>
       <c r="D249">
-        <v>0.0238072057358599</v>
+        <v>0.0476144114717198</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -5389,7 +5389,7 @@
         <v>0.0567222090730652</v>
       </c>
       <c r="D250">
-        <v>0.01813554021373919</v>
+        <v>0.03627108042747838</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -5409,7 +5409,7 @@
         <v>0.03452497306034077</v>
       </c>
       <c r="D251">
-        <v>0.01315956440752891</v>
+        <v>0.02631912881505783</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0.02069884587428431</v>
       </c>
       <c r="D252">
-        <v>0.009153179509801357</v>
+        <v>0.01830635901960271</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0.01218383939305298</v>
       </c>
       <c r="D253">
-        <v>0.006179167976299483</v>
+        <v>0.01235833595259897</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>0.00701139855400118</v>
       </c>
       <c r="D254">
-        <v>0.004098770694138438</v>
+        <v>0.008197541388276877</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -5489,7 +5489,7 @@
         <v>0.003925063067325974</v>
       </c>
       <c r="D255">
-        <v>0.002686594619911507</v>
+        <v>0.005373189239823013</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -5509,7 +5509,7 @@
         <v>0.00211185260497971</v>
       </c>
       <c r="D256">
-        <v>0.001727055316912157</v>
+        <v>0.003454110633824314</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>0.001066936002330261</v>
       </c>
       <c r="D257">
-        <v>0.00105653187330468</v>
+        <v>0.00211306374660936</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -5549,7 +5549,7 @@
         <v>0.0004972753065867813</v>
       </c>
       <c r="D258">
-        <v>0.000586087892637705</v>
+        <v>0.00117217578527541</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0.0001841021703739079</v>
       </c>
       <c r="D259">
-        <v>0.0002656704236365322</v>
+        <v>0.0005313408472730645</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>4.009480465222332E-05</v>
       </c>
       <c r="D260">
-        <v>7.37204861211901E-05</v>
+        <v>0.0001474409722423802</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>1.768724816859694E-06</v>
       </c>
       <c r="D261">
-        <v>3.796987912790613E-06</v>
+        <v>7.593975825581225E-06</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -5629,7 +5629,7 @@
         <v>24.16663383793074</v>
       </c>
       <c r="D262">
-        <v>0.7904353358317262</v>
+        <v>1.580870671663452</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>2.806674237465023</v>
       </c>
       <c r="D263">
-        <v>0.1347096093160728</v>
+        <v>0.2694192186321456</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -5669,7 +5669,7 @@
         <v>1.226504111261669</v>
       </c>
       <c r="D264">
-        <v>0.06150078020759724</v>
+        <v>0.1230015604151945</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -5689,7 +5689,7 @@
         <v>0.6611493617999602</v>
       </c>
       <c r="D265">
-        <v>0.03816989689211878</v>
+        <v>0.07633979378423755</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -5709,7 +5709,7 @@
         <v>0.3869272548070067</v>
       </c>
       <c r="D266">
-        <v>0.03443341424468901</v>
+        <v>0.06886682848937802</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0.2360475913427233</v>
       </c>
       <c r="D267">
-        <v>0.03302049130779434</v>
+        <v>0.06604098261558868</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>0.1465073112862198</v>
       </c>
       <c r="D268">
-        <v>0.0291600237000035</v>
+        <v>0.05832004740000701</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -5769,7 +5769,7 @@
         <v>0.09104012681475115</v>
       </c>
       <c r="D269">
-        <v>0.02363768956656449</v>
+        <v>0.04727537913312897</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0.05607498165582735</v>
       </c>
       <c r="D270">
-        <v>0.01798061139423657</v>
+        <v>0.03596122278847314</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>0.03409205552048919</v>
       </c>
       <c r="D271">
-        <v>0.01303076404084848</v>
+        <v>0.02606152808169696</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -5829,7 +5829,7 @@
         <v>0.02041859889336706</v>
       </c>
       <c r="D272">
-        <v>0.009054007770212799</v>
+        <v>0.0181080155404256</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0.01200833637345802</v>
       </c>
       <c r="D273">
-        <v>0.00610701067822744</v>
+        <v>0.01221402135645488</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -5869,7 +5869,7 @@
         <v>0.006905326473818195</v>
       </c>
       <c r="D274">
-        <v>0.0040479554741804</v>
+        <v>0.008095910948360799</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -5889,7 +5889,7 @@
         <v>0.003863174956983368</v>
       </c>
       <c r="D275">
-        <v>0.002651349225180475</v>
+        <v>0.005302698450360951</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -5909,7 +5909,7 @@
         <v>0.002077124973198081</v>
       </c>
       <c r="D276">
-        <v>0.001702729533375292</v>
+        <v>0.003405459066750584</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>0.001048447909484357</v>
       </c>
       <c r="D277">
-        <v>0.001040247779495</v>
+        <v>0.002080495558989999</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>0.000487978955619957</v>
       </c>
       <c r="D278">
-        <v>0.0005759677887662156</v>
+        <v>0.001151935577532431</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>0.0001802219213055485</v>
       </c>
       <c r="D279">
-        <v>0.0002603587055468625</v>
+        <v>0.000520717411093725</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>3.909076952754405E-05</v>
       </c>
       <c r="D280">
-        <v>7.193479543865219E-05</v>
+        <v>0.0001438695908773044</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>1.708092381410016E-06</v>
       </c>
       <c r="D281">
-        <v>3.662637212824854E-06</v>
+        <v>7.325274425649707E-06</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -6029,7 +6029,7 @@
         <v>24.30014504334104</v>
       </c>
       <c r="D282">
-        <v>0.7922864202669775</v>
+        <v>1.584572840533955</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>2.806079815850555</v>
       </c>
       <c r="D283">
-        <v>0.1343390971994912</v>
+        <v>0.2686781943989824</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -6069,7 +6069,7 @@
         <v>1.223453798641867</v>
       </c>
       <c r="D284">
-        <v>0.06124843963428606</v>
+        <v>0.1224968792685721</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0.6584032362332679</v>
       </c>
       <c r="D285">
-        <v>0.0380998673084011</v>
+        <v>0.0761997346168022</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -6109,7 +6109,7 @@
         <v>0.3847782602497135</v>
       </c>
       <c r="D286">
-        <v>0.03439707066894261</v>
+        <v>0.06879414133788522</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0.2344282815255222</v>
       </c>
       <c r="D287">
-        <v>0.03292319540441997</v>
+        <v>0.06584639080883993</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -6149,7 +6149,7 @@
         <v>0.1453175408465417</v>
       </c>
       <c r="D288">
-        <v>0.02901592793183943</v>
+        <v>0.05803185586367886</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -6169,7 +6169,7 @@
         <v>0.0901906348786312</v>
       </c>
       <c r="D289">
-        <v>0.02348283589390928</v>
+        <v>0.04696567178781857</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -6189,7 +6189,7 @@
         <v>0.0554884029488032</v>
       </c>
       <c r="D290">
-        <v>0.01783938044854331</v>
+        <v>0.03567876089708661</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>0.03370051382198237</v>
       </c>
       <c r="D291">
-        <v>0.01291354647810193</v>
+        <v>0.02582709295620387</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -6229,7 +6229,7 @@
         <v>0.02016560577503073</v>
       </c>
       <c r="D292">
-        <v>0.00896387779607255</v>
+        <v>0.0179277555921451</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0.01185014801486371</v>
       </c>
       <c r="D293">
-        <v>0.006041499551721264</v>
+        <v>0.01208299910344253</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -6269,7 +6269,7 @@
         <v>0.006809826883653641</v>
       </c>
       <c r="D294">
-        <v>0.004001856113333065</v>
+        <v>0.00800371222666613</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -6289,7 +6289,7 @@
         <v>0.003807487996197199</v>
       </c>
       <c r="D295">
-        <v>0.002619393574378937</v>
+        <v>0.005238787148757875</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>0.002045879492174639</v>
       </c>
       <c r="D296">
-        <v>0.001680690855870323</v>
+        <v>0.003361381711740647</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0.001031809912499498</v>
       </c>
       <c r="D297">
-        <v>0.001025512321113799</v>
+        <v>0.002051024642227597</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -6349,7 +6349,7 @@
         <v>0.0004796124917798195</v>
       </c>
       <c r="D298">
-        <v>0.0005668259263015326</v>
+        <v>0.001133651852603065</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>0.0001767339279191889</v>
       </c>
       <c r="D299">
-        <v>0.0002555735170926029</v>
+        <v>0.0005111470341852058</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>3.819118149605891E-05</v>
       </c>
       <c r="D300">
-        <v>7.03329392411711E-05</v>
+        <v>0.0001406658784823422</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -6409,7 +6409,7 @@
         <v>1.654196285613966E-06</v>
       </c>
       <c r="D301">
-        <v>3.543455086101217E-06</v>
+        <v>7.086910172202435E-06</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>24.42424351775855</v>
       </c>
       <c r="D302">
-        <v>0.79397844726003</v>
+        <v>1.58795689452006</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>2.80551165231915</v>
       </c>
       <c r="D303">
-        <v>0.1339975168628376</v>
+        <v>0.2679950337256752</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -6469,7 +6469,7 @@
         <v>1.22063246510601</v>
       </c>
       <c r="D304">
-        <v>0.06101756089370839</v>
+        <v>0.1220351217874168</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -6489,7 +6489,7 @@
         <v>0.6558707294017312</v>
       </c>
       <c r="D305">
-        <v>0.03803649500658788</v>
+        <v>0.07607299001317576</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>0.3827999457484024</v>
       </c>
       <c r="D306">
-        <v>0.03436300348739695</v>
+        <v>0.0687260069747939</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0.2329397605175295</v>
       </c>
       <c r="D307">
-        <v>0.03283289325977272</v>
+        <v>0.06566578651954544</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -6549,7 +6549,7 @@
         <v>0.1442252947992957</v>
       </c>
       <c r="D308">
-        <v>0.02888301411798706</v>
+        <v>0.05776602823597411</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -6569,7 +6569,7 @@
         <v>0.08941168763578491</v>
       </c>
       <c r="D309">
-        <v>0.0233404442825133</v>
+        <v>0.04668088856502661</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0.05495109689423427</v>
       </c>
       <c r="D310">
-        <v>0.01770976471478049</v>
+        <v>0.03541952942956098</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -6609,7 +6609,7 @@
         <v>0.03334218660839737</v>
       </c>
       <c r="D311">
-        <v>0.01280613249964506</v>
+        <v>0.02561226499929012</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -6629,7 +6629,7 @@
         <v>0.01993425556197381</v>
       </c>
       <c r="D312">
-        <v>0.00888138896236137</v>
+        <v>0.01776277792472274</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0.01170559679153913</v>
       </c>
       <c r="D313">
-        <v>0.005981598603761689</v>
+        <v>0.01196319720752338</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -6669,7 +6669,7 @@
         <v>0.006722618183757134</v>
       </c>
       <c r="D314">
-        <v>0.00395973378860673</v>
+        <v>0.007919467577213461</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -6689,7 +6689,7 @@
         <v>0.003756669553977871</v>
       </c>
       <c r="D315">
-        <v>0.00259021058215078</v>
+        <v>0.005180421164301559</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>0.002017389593864917</v>
       </c>
       <c r="D316">
-        <v>0.001660578434446809</v>
+        <v>0.003321156868893619</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>0.001016656242626594</v>
       </c>
       <c r="D317">
-        <v>0.001012079469715101</v>
+        <v>0.002024158939430202</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -6749,7 +6749,7 @@
         <v>0.0004720042958750239</v>
       </c>
       <c r="D318">
-        <v>0.0005585055125865529</v>
+        <v>0.001117011025173106</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>0.0001735697910080876</v>
       </c>
       <c r="D319">
-        <v>0.0002512291256120064</v>
+        <v>0.0005024582512240128</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -6789,7 +6789,7 @@
         <v>3.737825808756562E-05</v>
       </c>
       <c r="D320">
-        <v>6.888432083628088E-05</v>
+        <v>0.0001377686416725618</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -6809,7 +6809,7 @@
         <v>1.605905526714582E-06</v>
       </c>
       <c r="D321">
-        <v>3.43687959520073E-06</v>
+        <v>6.87375919040146E-06</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -6829,7 +6829,7 @@
         <v>24.54094902105873</v>
       </c>
       <c r="D322">
-        <v>0.7955344085355619</v>
+        <v>1.591068817071124</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -6849,7 +6849,7 @@
         <v>2.805015934826716</v>
       </c>
       <c r="D323">
-        <v>0.1336809034851398</v>
+        <v>0.2673618069702795</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -6869,7 +6869,7 @@
         <v>1.218023213211658</v>
       </c>
       <c r="D324">
-        <v>0.06080505694329562</v>
+        <v>0.1216101138865912</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>0.6535270571207359</v>
       </c>
       <c r="D325">
-        <v>0.03797874813549697</v>
+        <v>0.07595749627099393</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -6909,7 +6909,7 @@
         <v>0.3809694956672405</v>
       </c>
       <c r="D326">
-        <v>0.03433093544965136</v>
+        <v>0.06866187089930272</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -6929,7 +6929,7 @@
         <v>0.2315629525271402</v>
       </c>
       <c r="D327">
-        <v>0.03274867413406831</v>
+        <v>0.06549734826813662</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>0.1432153359411242</v>
       </c>
       <c r="D328">
-        <v>0.02875975737747906</v>
+        <v>0.05751951475495812</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -6969,7 +6969,7 @@
         <v>0.08869156086757575</v>
       </c>
       <c r="D329">
-        <v>0.02320877868962051</v>
+        <v>0.04641755737924101</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -6989,7 +6989,7 @@
         <v>0.05445439664830652</v>
       </c>
       <c r="D330">
-        <v>0.01759012513143133</v>
+        <v>0.03518025026286267</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -7009,7 +7009,7 @@
         <v>0.03301092722756287</v>
       </c>
       <c r="D331">
-        <v>0.01270712519994949</v>
+        <v>0.02541425039989899</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -7029,7 +7029,7 @@
         <v>0.01972036511702592</v>
       </c>
       <c r="D332">
-        <v>0.008805443411462012</v>
+        <v>0.01761088682292402</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>0.01157196151475814</v>
       </c>
       <c r="D333">
-        <v>0.005926496642388573</v>
+        <v>0.01185299328477715</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -7069,7 +7069,7 @@
         <v>0.006642020680248931</v>
       </c>
       <c r="D334">
-        <v>0.003921010903256602</v>
+        <v>0.007842021806513205</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -7089,7 +7089,7 @@
         <v>0.003709740045117093</v>
       </c>
       <c r="D335">
-        <v>0.002563396183521175</v>
+        <v>0.00512679236704235</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0.001991119125232431</v>
       </c>
       <c r="D336">
-        <v>0.001642110694677084</v>
+        <v>0.003284221389354168</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -7129,7 +7129,7 @@
         <v>0.001002714432439811</v>
       </c>
       <c r="D337">
-        <v>0.0009997574342525478</v>
+        <v>0.001999514868505096</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -7149,7 +7149,7 @@
         <v>0.0004650248587702648</v>
       </c>
       <c r="D338">
-        <v>0.0005508845969131516</v>
+        <v>0.001101769193826303</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -7169,7 +7169,7 @@
         <v>0.0001706773477228867</v>
       </c>
       <c r="D339">
-        <v>0.0002472591171639441</v>
+        <v>0.0004945182343278883</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>3.663840110288442E-05</v>
       </c>
       <c r="D340">
-        <v>6.756540711581562E-05</v>
+        <v>0.0001351308142316312</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -7209,7 +7209,7 @@
         <v>1.562320226292708E-06</v>
       </c>
       <c r="D341">
-        <v>3.340830415937117E-06</v>
+        <v>6.681660831874234E-06</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -7229,7 +7229,7 @@
         <v>24.65164839339085</v>
       </c>
       <c r="D342">
-        <v>0.7969727720614681</v>
+        <v>1.593945544122936</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>2.804614332308118</v>
       </c>
       <c r="D343">
-        <v>0.1333860449826541</v>
+        <v>0.2667720899653082</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -7269,7 +7269,7 @@
         <v>1.215607722032393</v>
       </c>
       <c r="D344">
-        <v>0.06060844607953627</v>
+        <v>0.1212168921590725</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -7289,7 +7289,7 @@
         <v>0.6513505777281323</v>
       </c>
       <c r="D345">
-        <v>0.03792580864857221</v>
+        <v>0.07585161729714442</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>0.3792680696447905</v>
       </c>
       <c r="D346">
-        <v>0.03430063771337145</v>
+        <v>0.06860127542674291</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -7329,7 +7329,7 @@
         <v>0.2302825912494382</v>
       </c>
       <c r="D347">
-        <v>0.03266979371390959</v>
+        <v>0.06533958742781917</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -7349,7 +7349,7 @@
         <v>0.1422757511030268</v>
       </c>
       <c r="D348">
-        <v>0.0286449214351101</v>
+        <v>0.05728984287022021</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -7369,7 +7369,7 @@
         <v>0.08802127100045981</v>
       </c>
       <c r="D349">
-        <v>0.02308643709684914</v>
+        <v>0.04617287419369829</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>0.05399177885141462</v>
       </c>
       <c r="D350">
-        <v>0.01747914086255596</v>
+        <v>0.03495828172511193</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -7409,7 +7409,7 @@
         <v>0.03270218069592276</v>
       </c>
       <c r="D351">
-        <v>0.01261540088680408</v>
+        <v>0.02523080177360817</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>0.01952087521311185</v>
       </c>
       <c r="D352">
-        <v>0.008735159318832255</v>
+        <v>0.01747031863766451</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0.01144727079151946</v>
       </c>
       <c r="D353">
-        <v>0.005875542814879555</v>
+        <v>0.01175108562975911</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0.006566823195280241</v>
       </c>
       <c r="D354">
-        <v>0.003885224516370473</v>
+        <v>0.007770449032740946</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -7489,7 +7489,7 @@
         <v>0.003665991928837946</v>
       </c>
       <c r="D355">
-        <v>0.002538626689407121</v>
+        <v>0.005077253378814242</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -7509,7 +7509,7 @@
         <v>0.001966676897130638</v>
       </c>
       <c r="D356">
-        <v>0.001625062192728855</v>
+        <v>0.00325012438545771</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -7529,7 +7529,7 @@
         <v>0.0009897819670073398</v>
       </c>
       <c r="D357">
-        <v>0.0009883928635799281</v>
+        <v>0.001976785727159856</v>
       </c>
       <c r="E357">
         <v>0</v>
@@ -7549,7 +7549,7 @@
         <v>0.0004585755459136211</v>
       </c>
       <c r="D358">
-        <v>0.0005438658045249417</v>
+        <v>0.001087731609049883</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -7569,7 +7569,7 @@
         <v>0.0001680160136620125</v>
       </c>
       <c r="D359">
-        <v>0.0002436106285887488</v>
+        <v>0.0004872212571774976</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -7589,7 +7589,7 @@
         <v>3.596089998556375E-05</v>
       </c>
       <c r="D360">
-        <v>6.635753482262927E-05</v>
+        <v>0.0001327150696452585</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>1.522717579431579E-06</v>
       </c>
       <c r="D361">
-        <v>3.253633426542936E-06</v>
+        <v>6.507266853085872E-06</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -7629,7 +7629,7 @@
         <v>24.75725034796626</v>
       </c>
       <c r="D362">
-        <v>0.7983086409582418</v>
+        <v>1.596617281916484</v>
       </c>
       <c r="E362">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>2.804310344045192</v>
       </c>
       <c r="D363">
-        <v>0.1331102927663294</v>
+        <v>0.2662205855326588</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -7669,7 +7669,7 @@
         <v>1.213366871646317</v>
       </c>
       <c r="D364">
-        <v>0.0604256987556616</v>
+        <v>0.1208513975113232</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -7689,7 +7689,7 @@
         <v>0.6493222558363652</v>
       </c>
       <c r="D365">
-        <v>0.03787701667729024</v>
+        <v>0.07575403335458049</v>
       </c>
       <c r="E365">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0.3776800283320571</v>
       </c>
       <c r="D366">
-        <v>0.03427192017522989</v>
+        <v>0.06854384035045978</v>
       </c>
       <c r="E366">
         <v>0</v>
@@ -7729,7 +7729,7 @@
         <v>0.2290864537829133</v>
       </c>
       <c r="D367">
-        <v>0.03259563473478012</v>
+        <v>0.06519126946956023</v>
       </c>
       <c r="E367">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>0.141397272681668</v>
       </c>
       <c r="D368">
-        <v>0.02853748590730112</v>
+        <v>0.05707497181460225</v>
       </c>
       <c r="E368">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>0.08739400984203212</v>
       </c>
       <c r="D369">
-        <v>0.0229722651244743</v>
+        <v>0.04594453024894861</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>0.05355841802888209</v>
       </c>
       <c r="D370">
-        <v>0.01737572642085942</v>
+        <v>0.03475145284171885</v>
       </c>
       <c r="E370">
         <v>0</v>
@@ -7809,7 +7809,7 @@
         <v>0.03241265037463556</v>
       </c>
       <c r="D371">
-        <v>0.01253003724650997</v>
+        <v>0.02506007449301994</v>
       </c>
       <c r="E371">
         <v>0</v>
@@ -7829,7 +7829,7 @@
         <v>0.01933361226487659</v>
       </c>
       <c r="D372">
-        <v>0.008669813864672603</v>
+        <v>0.01733962772934521</v>
       </c>
       <c r="E372">
         <v>0</v>
@@ -7849,7 +7849,7 @@
         <v>0.01133014212942976</v>
       </c>
       <c r="D373">
-        <v>0.00582820422842628</v>
+        <v>0.01165640845685256</v>
       </c>
       <c r="E373">
         <v>0</v>
@@ -7869,7 +7869,7 @@
         <v>0.006496180549941329</v>
       </c>
       <c r="D374">
-        <v>0.003851995822073364</v>
+        <v>0.007703991644146728</v>
       </c>
       <c r="E374">
         <v>0</v>
@@ -7889,7 +7889,7 @@
         <v>0.003624928643635388</v>
       </c>
       <c r="D375">
-        <v>0.002515637388732147</v>
+        <v>0.005031274777464293</v>
       </c>
       <c r="E375">
         <v>0</v>
@@ -7909,7 +7909,7 @@
         <v>0.001943783197868653</v>
       </c>
       <c r="D376">
-        <v>0.001609248515827095</v>
+        <v>0.00321849703165419</v>
       </c>
       <c r="E376">
         <v>0</v>
@@ -7929,7 +7929,7 @@
         <v>0.0009777095586969359</v>
       </c>
       <c r="D377">
-        <v>0.000977860523310808</v>
+        <v>0.001955721046621616</v>
       </c>
       <c r="E377">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0.0004525808444353914</v>
       </c>
       <c r="D378">
-        <v>0.000537369662121775</v>
+        <v>0.00107473932424355</v>
       </c>
       <c r="E378">
         <v>0</v>
@@ -7969,7 +7969,7 @@
         <v>0.0001655536948689622</v>
       </c>
       <c r="D379">
-        <v>0.0002402406156666086</v>
+        <v>0.0004804812313332172</v>
       </c>
       <c r="E379">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>3.53371048606078E-05</v>
       </c>
       <c r="D380">
-        <v>6.524551555239964E-05</v>
+        <v>0.0001304910311047993</v>
       </c>
       <c r="E380">
         <v>0</v>
@@ -8009,7 +8009,7 @@
         <v>1.486512566976208E-06</v>
       </c>
       <c r="D381">
-        <v>3.173953496081892E-06</v>
+        <v>6.347906992163785E-06</v>
       </c>
       <c r="E381">
         <v>0</v>
@@ -8029,7 +8029,7 @@
         <v>24.85829911477735</v>
       </c>
       <c r="D382">
-        <v>0.7995544369837004</v>
+        <v>1.599108873967401</v>
       </c>
       <c r="E382">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>2.804093978553195</v>
       </c>
       <c r="D383">
-        <v>0.1328514420931079</v>
+        <v>0.2657028841862158</v>
       </c>
       <c r="E383">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>1.211281174490054</v>
       </c>
       <c r="D384">
-        <v>0.06025513980773823</v>
+        <v>0.1205102796154765</v>
       </c>
       <c r="E384">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>0.6474252095697149</v>
       </c>
       <c r="D385">
-        <v>0.03783183318207036</v>
+        <v>0.07566366636414072</v>
       </c>
       <c r="E385">
         <v>0</v>
@@ -8109,7 +8109,7 @@
         <v>0.3761922874974813</v>
       </c>
       <c r="D386">
-        <v>0.03424462217410956</v>
+        <v>0.06848924434821912</v>
       </c>
       <c r="E386">
         <v>0</v>
@@ -8129,7 +8129,7 @@
         <v>0.2279647161535019</v>
       </c>
       <c r="D387">
-        <v>0.03252568042965398</v>
+        <v>0.06505136085930796</v>
       </c>
       <c r="E387">
         <v>0</v>
@@ -8149,7 +8149,7 @@
         <v>0.1405727029211379</v>
       </c>
       <c r="D388">
-        <v>0.02843660130412634</v>
+        <v>0.05687320260825269</v>
       </c>
       <c r="E388">
         <v>0</v>
@@ -8169,7 +8169,7 @@
         <v>0.08680466191817159</v>
       </c>
       <c r="D389">
-        <v>0.02286530426079273</v>
+        <v>0.04573060852158546</v>
       </c>
       <c r="E389">
         <v>0</v>
@@ -8189,7 +8189,7 @@
         <v>0.05315080430426372</v>
       </c>
       <c r="D390">
-        <v>0.01727898235596802</v>
+        <v>0.03455796471193603</v>
       </c>
       <c r="E390">
         <v>0</v>
@@ -8209,7 +8209,7 @@
         <v>0.03214001143975859</v>
       </c>
       <c r="D391">
-        <v>0.01245027106017779</v>
+        <v>0.02490054212035558</v>
       </c>
       <c r="E391">
         <v>0</v>
@@ -8229,7 +8229,7 @@
         <v>0.01915708491292635</v>
       </c>
       <c r="D392">
-        <v>0.008608809773477961</v>
+        <v>0.01721761954695592</v>
       </c>
       <c r="E392">
         <v>0</v>
@@ -8249,7 +8249,7 @@
         <v>0.01121964589627453</v>
       </c>
       <c r="D393">
-        <v>0.005784041081907855</v>
+        <v>0.01156808216381571</v>
       </c>
       <c r="E393">
         <v>0</v>
@@ -8269,7 +8269,7 @@
         <v>0.006429528774378019</v>
       </c>
       <c r="D394">
-        <v>0.00382101238862762</v>
+        <v>0.007642024777255241</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0.003586215767273387</v>
       </c>
       <c r="D395">
-        <v>0.002494210096052891</v>
+        <v>0.004988420192105781</v>
       </c>
       <c r="E395">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0.001922244137956108</v>
       </c>
       <c r="D396">
-        <v>0.001594517623008427</v>
+        <v>0.003189035246016855</v>
       </c>
       <c r="E396">
         <v>0</v>
@@ -8329,7 +8329,7 @@
         <v>0.0009663890470512711</v>
       </c>
       <c r="D397">
-        <v>0.0009680573556789901</v>
+        <v>0.00193611471135798</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -8349,7 +8349,7 @@
         <v>0.0004469832086651039</v>
       </c>
       <c r="D398">
-        <v>0.0005313308137845813</v>
+        <v>0.001062661627569163</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -8369,7 +8369,7 @@
         <v>0.0001632649353164328</v>
       </c>
       <c r="D399">
-        <v>0.0002371137697796261</v>
+        <v>0.0004742275395592521</v>
       </c>
       <c r="E399">
         <v>0</v>
@@ -8389,7 +8389,7 @@
         <v>3.475998383913729E-05</v>
       </c>
       <c r="D400">
-        <v>6.42168960147521E-05</v>
+        <v>0.0001284337920295042</v>
       </c>
       <c r="E400">
         <v>0</v>
@@ -8409,7 +8409,7 @@
         <v>1.453228972152082E-06</v>
       </c>
       <c r="D401">
-        <v>3.100723873248072E-06</v>
+        <v>6.201447746496143E-06</v>
       </c>
       <c r="E401">
         <v>0</v>
@@ -8429,7 +8429,7 @@
         <v>24.95506678262075</v>
       </c>
       <c r="D402">
-        <v>0.8007204390332152</v>
+        <v>1.60144087806643</v>
       </c>
       <c r="E402">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>2.803945645690556</v>
       </c>
       <c r="D403">
-        <v>0.1326076422085917</v>
+        <v>0.2652152844171835</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -8469,7 +8469,7 @@
         <v>1.209331187776153</v>
       </c>
       <c r="D404">
-        <v>0.06009537462577908</v>
+        <v>0.1201907492515582</v>
       </c>
       <c r="E404">
         <v>0</v>
@@ -8489,7 +8489,7 @@
         <v>0.6456443848125308</v>
       </c>
       <c r="D405">
-        <v>0.03778981278742809</v>
+        <v>0.07557962557485617</v>
       </c>
       <c r="E405">
         <v>0</v>
@@ -8509,7 +8509,7 @@
         <v>0.3747938211479947</v>
       </c>
       <c r="D406">
-        <v>0.03421860594673656</v>
+        <v>0.06843721189347313</v>
       </c>
       <c r="E406">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>0.2269094479991111</v>
       </c>
       <c r="D407">
-        <v>0.03245949437692595</v>
+        <v>0.06491898875385191</v>
       </c>
       <c r="E407">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0.1397964578123597</v>
       </c>
       <c r="D408">
-        <v>0.028341554830058</v>
+        <v>0.056683109660116</v>
       </c>
       <c r="E408">
         <v>0</v>
@@ -8569,7 +8569,7 @@
         <v>0.08624941933639865</v>
       </c>
       <c r="D409">
-        <v>0.0227647525579925</v>
+        <v>0.045529505115985</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0.05276643678754459</v>
       </c>
       <c r="D410">
-        <v>0.01718815776616354</v>
+        <v>0.03437631553232709</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -8609,7 +8609,7 @@
         <v>0.03188268015570297</v>
       </c>
       <c r="D411">
-        <v>0.01237546606911542</v>
+        <v>0.02475093213823083</v>
       </c>
       <c r="E411">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>0.01899031982888098</v>
       </c>
       <c r="D412">
-        <v>0.008551649867711118</v>
+        <v>0.01710329973542224</v>
       </c>
       <c r="E412">
         <v>0</v>
@@ -8649,7 +8649,7 @@
         <v>0.01111519533503236</v>
       </c>
       <c r="D413">
-        <v>0.005742687737552681</v>
+        <v>0.01148537547510536</v>
       </c>
       <c r="E413">
         <v>0</v>
@@ -8669,7 +8669,7 @@
         <v>0.006366516582375198</v>
       </c>
       <c r="D414">
-        <v>0.003792014644565454</v>
+        <v>0.007584029289130908</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0.003549641632442991</v>
       </c>
       <c r="D415">
-        <v>0.00247416366906872</v>
+        <v>0.00494832733813744</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -8709,7 +8709,7 @@
         <v>0.001901931046513562</v>
       </c>
       <c r="D416">
-        <v>0.001580743268107972</v>
+        <v>0.003161486536215944</v>
       </c>
       <c r="E416">
         <v>0</v>
@@ -8729,7 +8729,7 @@
         <v>0.0009557437436321864</v>
       </c>
       <c r="D417">
-        <v>0.000958897949383843</v>
+        <v>0.001917795898767686</v>
       </c>
       <c r="E417">
         <v>0</v>
@@ -8749,7 +8749,7 @@
         <v>0.0004417390013384587</v>
       </c>
       <c r="D418">
-        <v>0.0005256951398118104</v>
+        <v>0.001051390279623621</v>
       </c>
       <c r="E418">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0.0001611294823723747</v>
       </c>
       <c r="D419">
-        <v>0.0002342009299275531</v>
+        <v>0.0004684018598551063</v>
       </c>
       <c r="E419">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>3.422378928642492E-05</v>
       </c>
       <c r="D420">
-        <v>6.326140016023394E-05</v>
+        <v>0.0001265228003204679</v>
       </c>
       <c r="E420">
         <v>0</v>
@@ -8809,7 +8809,7 @@
         <v>1.422477257978059E-06</v>
       </c>
       <c r="D421">
-        <v>3.033088660744372E-06</v>
+        <v>6.066177321488745E-06</v>
       </c>
       <c r="E421">
         <v>0</v>
@@ -8829,7 +8829,7 @@
         <v>25.0477046826553</v>
       </c>
       <c r="D422">
-        <v>0.8018153181149557</v>
+        <v>1.603630636229911</v>
       </c>
       <c r="E422">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>2.803843723631</v>
       </c>
       <c r="D423">
-        <v>0.1323773240668836</v>
+        <v>0.2647546481337673</v>
       </c>
       <c r="E423">
         <v>0</v>
@@ -8869,7 +8869,7 @@
         <v>1.207499001033897</v>
       </c>
       <c r="D424">
-        <v>0.05994522741971983</v>
+        <v>0.1198904548394397</v>
       </c>
       <c r="E424">
         <v>0</v>
@@ -8889,7 +8889,7 @@
         <v>0.6439665815174338</v>
       </c>
       <c r="D425">
-        <v>0.03775058399079944</v>
+        <v>0.07550116798159888</v>
       </c>
       <c r="E425">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0.3734752283235712</v>
       </c>
       <c r="D426">
-        <v>0.03419375320912785</v>
+        <v>0.06838750641825571</v>
       </c>
       <c r="E426">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0.2259140413337805</v>
       </c>
       <c r="D427">
-        <v>0.03239670392010821</v>
+        <v>0.06479340784021642</v>
       </c>
       <c r="E427">
         <v>0</v>
@@ -8949,7 +8949,7 @@
         <v>0.1390639884934115</v>
       </c>
       <c r="D428">
-        <v>0.0282517414330853</v>
+        <v>0.05650348286617059</v>
       </c>
       <c r="E428">
         <v>0</v>
@@ -8969,7 +8969,7 @@
         <v>0.08572525673227828</v>
       </c>
       <c r="D429">
-        <v>0.02266993112264659</v>
+        <v>0.04533986224529318</v>
       </c>
       <c r="E429">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>0.05240338438302291</v>
       </c>
       <c r="D430">
-        <v>0.01710261798165855</v>
+        <v>0.0342052359633171</v>
       </c>
       <c r="E430">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>0.03163947148075709</v>
       </c>
       <c r="D431">
-        <v>0.01230508516711212</v>
+        <v>0.02461017033422424</v>
       </c>
       <c r="E431">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0.01883261210859975</v>
       </c>
       <c r="D432">
-        <v>0.008497914898314448</v>
+        <v>0.0169958297966289</v>
       </c>
       <c r="E432">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>0.0110163770170309</v>
       </c>
       <c r="D433">
-        <v>0.005703836126638248</v>
+        <v>0.0114076722532765</v>
       </c>
       <c r="E433">
         <v>0</v>
@@ -9069,7 +9069,7 @@
         <v>0.006306899467422298</v>
       </c>
       <c r="D434">
-        <v>0.003764783997450018</v>
+        <v>0.007529567994900037</v>
       </c>
       <c r="E434">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>0.003515057119729013</v>
       </c>
       <c r="D435">
-        <v>0.002455345636257253</v>
+        <v>0.004910691272514507</v>
       </c>
       <c r="E435">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0.001882749908162062</v>
       </c>
       <c r="D436">
-        <v>0.001567819241682414</v>
+        <v>0.003135638483364829</v>
       </c>
       <c r="E436">
         <v>0</v>
@@ -9129,7 +9129,7 @@
         <v>0.0009457149113505693</v>
       </c>
       <c r="D437">
-        <v>0.000950310495772769</v>
+        <v>0.001900620991545538</v>
       </c>
       <c r="E437">
         <v>0</v>
@@ -9149,7 +9149,7 @@
         <v>0.0004368133704910195</v>
       </c>
       <c r="D438">
-        <v>0.0005204171925500491</v>
+        <v>0.001040834385100098</v>
       </c>
       <c r="E438">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0.0001591307113713232</v>
       </c>
       <c r="D439">
-        <v>0.0002314776502100206</v>
+        <v>0.0004629553004200412</v>
       </c>
       <c r="E439">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>3.372375025707558E-05</v>
       </c>
       <c r="D440">
-        <v>6.237044176700197E-05</v>
+        <v>0.0001247408835340039</v>
       </c>
       <c r="E440">
         <v>0</v>
@@ -9209,7 +9209,7 @@
         <v>1.393936759391782E-06</v>
       </c>
       <c r="D441">
-        <v>2.970349637248024E-06</v>
+        <v>5.940699274496048E-06</v>
       </c>
       <c r="E441">
         <v>0</v>
@@ -9229,7 +9229,7 @@
         <v>25.13635985161076</v>
       </c>
       <c r="D442">
-        <v>0.8028464998693853</v>
+        <v>1.605692999738771</v>
       </c>
       <c r="E442">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>2.803770370692841</v>
       </c>
       <c r="D443">
-        <v>0.1321591463154345</v>
+        <v>0.264318292630869</v>
       </c>
       <c r="E443">
         <v>0</v>
@@ -9269,7 +9269,7 @@
         <v>1.205769368011433</v>
       </c>
       <c r="D444">
-        <v>0.05980369665071485</v>
+        <v>0.1196073933014297</v>
       </c>
       <c r="E444">
         <v>0</v>
@@ -9289,7 +9289,7 @@
         <v>0.642380460108873</v>
       </c>
       <c r="D445">
-        <v>0.03771383431089093</v>
+        <v>0.07542766862178187</v>
       </c>
       <c r="E445">
         <v>0</v>
@@ -9309,7 +9309,7 @@
         <v>0.3722283855881098</v>
       </c>
       <c r="D446">
-        <v>0.0341699620866299</v>
+        <v>0.06833992417325981</v>
       </c>
       <c r="E446">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>0.2249727571306262</v>
       </c>
       <c r="D447">
-        <v>0.03233698792460218</v>
+        <v>0.06467397584920435</v>
       </c>
       <c r="E447">
         <v>0</v>
@@ -9349,7 +9349,7 @@
         <v>0.1383713233701119</v>
       </c>
       <c r="D448">
-        <v>0.02816664267657225</v>
+        <v>0.0563332853531445</v>
       </c>
       <c r="E448">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0.0852295164807856</v>
       </c>
       <c r="D449">
-        <v>0.02258025976123771</v>
+        <v>0.04516051952247542</v>
       </c>
       <c r="E449">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0.05205993905096397</v>
       </c>
       <c r="D450">
-        <v>0.01702182124491384</v>
+        <v>0.03404364248982768</v>
       </c>
       <c r="E450">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0.03140932907527322</v>
       </c>
       <c r="D451">
-        <v>0.01223867038318638</v>
+        <v>0.02447734076637275</v>
       </c>
       <c r="E451">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>0.01868332867602991</v>
       </c>
       <c r="D452">
-        <v>0.008447247651147464</v>
+        <v>0.01689449530229493</v>
       </c>
       <c r="E452">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0.01092281762835525</v>
       </c>
       <c r="D453">
-        <v>0.005667223897607682</v>
+        <v>0.01133444779521536</v>
       </c>
       <c r="E453">
         <v>0</v>
@@ -9469,7 +9469,7 @@
         <v>0.00625045670632007</v>
       </c>
       <c r="D454">
-        <v>0.003739134358244039</v>
+        <v>0.007478268716488078</v>
       </c>
       <c r="E454">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>0.003482328659512425</v>
       </c>
       <c r="D455">
-        <v>0.002437626238165012</v>
+        <v>0.004875252476330024</v>
       </c>
       <c r="E455">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0.001864617680083188</v>
       </c>
       <c r="D456">
-        <v>0.001555655249289348</v>
+        <v>0.003111310498578696</v>
       </c>
       <c r="E456">
         <v>0</v>
@@ -9529,7 +9529,7 @@
         <v>0.000936251434847165</v>
       </c>
       <c r="D457">
-        <v>0.0009422339316022388</v>
+        <v>0.001884467863204478</v>
       </c>
       <c r="E457">
         <v>0</v>
@@ -9549,7 +9549,7 @@
         <v>0.000432176398033498</v>
       </c>
       <c r="D458">
-        <v>0.0005154583808405454</v>
+        <v>0.001030916761681091</v>
       </c>
       <c r="E458">
         <v>0</v>
@@ -9569,7 +9569,7 @@
         <v>0.000157254469389743</v>
       </c>
       <c r="D459">
-        <v>0.0002289231954503448</v>
+        <v>0.0004578463909006896</v>
       </c>
       <c r="E459">
         <v>0</v>
@@ -9589,7 +9589,7 @@
         <v>3.32558452228398E-05</v>
       </c>
       <c r="D460">
-        <v>6.153677566210813E-05</v>
+        <v>0.0001230735513242163</v>
       </c>
       <c r="E460">
         <v>0</v>
@@ -9609,7 +9609,7 @@
         <v>1.367342503996077E-06</v>
       </c>
       <c r="D461">
-        <v>2.911930644657357E-06</v>
+        <v>5.823861289314714E-06</v>
       </c>
       <c r="E461">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>25.22118327421136</v>
       </c>
       <c r="D462">
-        <v>0.8038203709982176</v>
+        <v>1.607640741996435</v>
       </c>
       <c r="E462">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>2.80371133452666</v>
       </c>
       <c r="D463">
-        <v>0.1319519555759486</v>
+        <v>0.2639039111518972</v>
       </c>
       <c r="E463">
         <v>0</v>
@@ -9669,7 +9669,7 @@
         <v>1.204129375755255</v>
       </c>
       <c r="D464">
-        <v>0.05966992406692122</v>
+        <v>0.1193398481338424</v>
       </c>
       <c r="E464">
         <v>0</v>
@@ -9689,7 +9689,7 @@
         <v>0.6408762580869058</v>
       </c>
       <c r="D465">
-        <v>0.03767929878611355</v>
+        <v>0.0753585975722271</v>
       </c>
       <c r="E465">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0.3710462289634106</v>
       </c>
       <c r="D466">
-        <v>0.03414714392724745</v>
+        <v>0.0682942878544949</v>
       </c>
       <c r="E466">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0.2240805624667202</v>
       </c>
       <c r="D467">
-        <v>0.03228006796534169</v>
+        <v>0.06456013593068338</v>
       </c>
       <c r="E467">
         <v>0</v>
@@ -9749,7 +9749,7 @@
         <v>0.1377149494474592</v>
       </c>
       <c r="D468">
-        <v>0.02808581193641146</v>
+        <v>0.05617162387282292</v>
       </c>
       <c r="E468">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>0.08475982488382078</v>
       </c>
       <c r="D469">
-        <v>0.02249524006364437</v>
+        <v>0.04499048012728873</v>
       </c>
       <c r="E469">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0.05173455859008885</v>
       </c>
       <c r="D470">
-        <v>0.01694530275520991</v>
+        <v>0.03389060551041983</v>
       </c>
       <c r="E470">
         <v>0</v>
@@ -9809,7 +9809,7 @@
         <v>0.0311912876143686</v>
       </c>
       <c r="D471">
-        <v>0.01217582926477915</v>
+        <v>0.02435165852955831</v>
       </c>
       <c r="E471">
         <v>0</v>
@@ -9829,7 +9829,7 @@
         <v>0.01854188416552669</v>
       </c>
       <c r="D472">
-        <v>0.008399342248916586</v>
+        <v>0.01679868449783317</v>
       </c>
       <c r="E472">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>0.0108341689262524</v>
       </c>
       <c r="D473">
-        <v>0.005632626518173221</v>
+        <v>0.01126525303634644</v>
       </c>
       <c r="E473">
         <v>0</v>
@@ -9869,7 +9869,7 @@
         <v>0.006196982153352649</v>
       </c>
       <c r="D474">
-        <v>0.003714906520683057</v>
+        <v>0.007429813041366114</v>
       </c>
       <c r="E474">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0.003451332686239163</v>
       </c>
       <c r="D475">
-        <v>0.002420894499019929</v>
+        <v>0.004841788998039858</v>
       </c>
       <c r="E475">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0.00184745900873145</v>
       </c>
       <c r="D476">
-        <v>0.001544174158924006</v>
+        <v>0.003088348317848013</v>
       </c>
       <c r="E476">
         <v>0</v>
@@ -9929,7 +9929,7 @@
         <v>0.0009273079506721459</v>
       </c>
       <c r="D477">
-        <v>0.0009346160810848043</v>
+        <v>0.001869232162169609</v>
       </c>
       <c r="E477">
         <v>0</v>
@@ -9949,7 +9949,7 @@
         <v>0.0004278020755427296</v>
       </c>
       <c r="D478">
-        <v>0.000510785783000379</v>
+        <v>0.001021571566000758</v>
       </c>
       <c r="E478">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0.0001554886130610475</v>
       </c>
       <c r="D479">
-        <v>0.0002265198974925302</v>
+        <v>0.0004530397949850604</v>
       </c>
       <c r="E479">
         <v>0</v>
@@ -9989,7 +9989,7 @@
         <v>3.281666843682148E-05</v>
       </c>
       <c r="D480">
-        <v>6.075426373013824E-05</v>
+        <v>0.0001215085274602765</v>
       </c>
       <c r="E480">
         <v>0</v>
@@ -10009,7 +10009,7 @@
         <v>1.34247529775369E-06</v>
       </c>
       <c r="D481">
-        <v>2.857356071083545E-06</v>
+        <v>5.714712142167091E-06</v>
       </c>
       <c r="E481">
         <v>0</v>
@@ -10029,7 +10029,7 @@
         <v>25.30232798904015</v>
       </c>
       <c r="D482">
-        <v>0.8047424419364984</v>
+        <v>1.609484883872997</v>
       </c>
       <c r="E482">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>2.803655313070457</v>
       </c>
       <c r="D483">
-        <v>0.1317547550145359</v>
+        <v>0.2635095100290719</v>
       </c>
       <c r="E483">
         <v>0</v>
@@ -10069,7 +10069,7 @@
         <v>1.202568055265261</v>
       </c>
       <c r="D484">
-        <v>0.05954317033699037</v>
+        <v>0.1190863406739807</v>
       </c>
       <c r="E484">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>0.6394455342652264</v>
       </c>
       <c r="D485">
-        <v>0.03764675103489873</v>
+        <v>0.07529350206979746</v>
       </c>
       <c r="E485">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0.369922585726941</v>
       </c>
       <c r="D486">
-        <v>0.03412522080465627</v>
+        <v>0.06825044160931254</v>
       </c>
       <c r="E486">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0.2232330207435036</v>
       </c>
       <c r="D487">
-        <v>0.03222570134216656</v>
+        <v>0.06445140268433312</v>
       </c>
       <c r="E487">
         <v>0</v>
@@ -10149,7 +10149,7 @@
         <v>0.1370917427763436</v>
       </c>
       <c r="D488">
-        <v>0.02800886266586171</v>
+        <v>0.05601772533172341</v>
       </c>
       <c r="E488">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>0.08431405052953998</v>
       </c>
       <c r="D489">
-        <v>0.02241444199951314</v>
+        <v>0.04482888399902627</v>
       </c>
       <c r="E489">
         <v>0</v>
@@ -10189,7 +10189,7 @@
         <v>0.0514258434293248</v>
       </c>
       <c r="D490">
-        <v>0.01687266203923081</v>
+        <v>0.03374532407846163</v>
       </c>
       <c r="E490">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0.03098446090127369</v>
       </c>
       <c r="D491">
-        <v>0.01211622410569993</v>
+        <v>0.02423244821139986</v>
       </c>
       <c r="E491">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0.01840773525803359</v>
       </c>
       <c r="D492">
-        <v>0.008353935696921808</v>
+        <v>0.01670787139384362</v>
       </c>
       <c r="E492">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>0.01075010505342222</v>
       </c>
       <c r="D493">
-        <v>0.005599851040025513</v>
+        <v>0.01119970208005103</v>
       </c>
       <c r="E493">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0.006146282704848802</v>
       </c>
       <c r="D494">
-        <v>0.003691963726385002</v>
+        <v>0.007383927452770004</v>
       </c>
       <c r="E494">
         <v>0</v>
@@ -10289,7 +10289,7 @@
         <v>0.003421954456657627</v>
       </c>
       <c r="D495">
-        <v>0.002405055128248155</v>
+        <v>0.004810110256496311</v>
       </c>
       <c r="E495">
         <v>0</v>
@@ -10309,7 +10309,7 @@
         <v>0.001831205181226604</v>
       </c>
       <c r="D496">
-        <v>0.001533309827881158</v>
+        <v>0.003066619655762315</v>
       </c>
       <c r="E496">
         <v>0</v>
@@ -10329,7 +10329,7 @@
         <v>0.0009188439842058621</v>
       </c>
       <c r="D497">
-        <v>0.0009274121910477343</v>
+        <v>0.001854824382095469</v>
       </c>
       <c r="E497">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0.0004236676831086805</v>
       </c>
       <c r="D498">
-        <v>0.0005063712106164121</v>
+        <v>0.001012742421232824</v>
       </c>
       <c r="E498">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0.0001538226805487534</v>
       </c>
       <c r="D499">
-        <v>0.000224252648158637</v>
+        <v>0.0004485052963172741</v>
       </c>
       <c r="E499">
         <v>0</v>
@@ -10389,7 +10389,7 @@
         <v>3.240332716222387E-05</v>
       </c>
       <c r="D500">
-        <v>6.001769017876873E-05</v>
+        <v>0.0001200353803575375</v>
       </c>
       <c r="E500">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>1.319153841564739E-06</v>
       </c>
       <c r="D501">
-        <v>2.806233666472462E-06</v>
+        <v>5.612467332944923E-06</v>
       </c>
       <c r="E501">
         <v>0</v>
